--- a/Start Your Own/chatgpt_portfolio_update.xlsx
+++ b/Start Your Own/chatgpt_portfolio_update.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferg/work/mycode/ChatGPT-Micro-Cap-Experiment/Start Your Own/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D611E75B-FD85-A34E-A7A9-BD0BC1C3002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAF92F4-0D53-3D44-8AB1-8D8694589CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trades" sheetId="1" r:id="rId1"/>
+    <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -77,35 +77,46 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>EVLV</t>
+  </si>
+  <si>
+    <t>BUY - Manual Purchase</t>
+  </si>
+  <si>
+    <t>SERV</t>
+  </si>
+  <si>
+    <t>CWCO</t>
+  </si>
+  <si>
     <t>PVLA</t>
   </si>
   <si>
-    <t>EVLV</t>
-  </si>
-  <si>
-    <t>CWCO</t>
-  </si>
-  <si>
-    <t>SERV</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
     <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>SELL - Stop Loss Triggered</t>
+  </si>
+  <si>
+    <t>Stop loss triggered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_-"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,22 +128,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,16 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,25 +481,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -525,437 +548,744 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>18.78</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>7.99</v>
       </c>
-      <c r="E2" s="5">
-        <f>D2</f>
-        <v>7.99</v>
-      </c>
-      <c r="F2" s="5">
-        <f>IF(D2="", "", D2*0.92)</f>
-        <v>7.3508000000000004</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>150.0522</v>
+      </c>
+      <c r="F2">
+        <v>7.35</v>
+      </c>
+      <c r="G2">
         <v>8.44</v>
       </c>
-      <c r="H2" s="5">
-        <f>IF(OR(G2="", C2=""), "", G2*C2)</f>
+      <c r="H2">
+        <f>C2*G2</f>
         <v>158.50319999999999</v>
       </c>
-      <c r="I2" s="5">
-        <f>IF(OR(G2="", C2=""), "", (G2-E2)*C2)</f>
+      <c r="I2">
+        <f>(G2-D2)*C2</f>
         <v>8.4509999999999863</v>
       </c>
-      <c r="J2" s="4">
-        <f>IF(OR(G2="", E2=""), "", G2/E2-1)</f>
-        <v>5.63204005006257E-2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <f>L2+SUM(H2,L5)</f>
+      <c r="J2" s="3">
+        <f>(G2-D2)/D2*100</f>
+        <v>5.6320400500625691</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <f>IF(ISNUMBER(SEARCH("SELL",K2)),C2*G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IF(ISNUMBER(SEARCH("SELL",K2)),L2-E2,H2+L2)</f>
         <v>158.50319999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>10.77</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>13.92</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E5" si="0">D3</f>
-        <v>13.92</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F5" si="1">IF(D3="", "", D3*0.92)</f>
-        <v>12.8064</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>149.91839999999999</v>
+      </c>
+      <c r="F3">
+        <v>12.81</v>
+      </c>
+      <c r="G3">
         <v>13.75</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H5" si="2">IF(OR(G3="", C3=""), "", G3*C3)</f>
+      <c r="H3">
+        <f>C3*G3</f>
         <v>148.08750000000001</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I5" si="3">IF(OR(G3="", C3=""), "", (G3-E3)*C3)</f>
+      <c r="I3">
+        <f>(G3-D3)*C3</f>
         <v>-1.8308999999999991</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J5" si="4">IF(OR(G3="", E3=""), "", G3/E3-1)</f>
-        <v>-1.2212643678160884E-2</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <f>L3+SUM(H3,L8)</f>
+      <c r="J3" s="3">
+        <f>(G3-D3)/D3*100</f>
+        <v>-1.2212643678160915</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <f>IF(ISNUMBER(SEARCH("SELL",K3)),C3*G3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IF(ISNUMBER(SEARCH("SELL",K3)),L3-E3,H3+L3)</f>
         <v>148.08750000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>4.38</v>
+      </c>
+      <c r="D4">
+        <v>34.18</v>
+      </c>
+      <c r="E4">
+        <f>C4*D4</f>
+        <v>149.70839999999998</v>
+      </c>
+      <c r="F4">
+        <v>31.45</v>
+      </c>
+      <c r="G4">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="H4">
+        <f>C4*G4</f>
+        <v>151.19760000000002</v>
+      </c>
+      <c r="I4">
+        <f>(G4-D4)*C4</f>
+        <v>1.489200000000015</v>
+      </c>
+      <c r="J4" s="3">
+        <f>(G4-D4)/D4*100</f>
+        <v>0.99473376243418199</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <f>IF(ISNUMBER(SEARCH("SELL",K4)),C4*G4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>IF(ISNUMBER(SEARCH("SELL",K4)),L4-E4,H4+L4)</f>
+        <v>151.19760000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5">
+        <v>2.58</v>
+      </c>
+      <c r="D5">
+        <v>58.14</v>
+      </c>
+      <c r="E5">
+        <f>C5*D5</f>
+        <v>150.00120000000001</v>
+      </c>
+      <c r="F5">
+        <v>53.49</v>
+      </c>
+      <c r="G5">
+        <v>58.71</v>
+      </c>
+      <c r="H5">
+        <f>C5*G5</f>
+        <v>151.4718</v>
+      </c>
+      <c r="I5">
+        <f>(G5-D5)*C5</f>
+        <v>1.4706000000000008</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(G5-D5)/D5*100</f>
+        <v>0.98039215686274561</v>
+      </c>
+      <c r="K5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="D4" s="5">
-        <v>34.18</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>34.18</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>31.445600000000002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="2"/>
-        <v>151.19760000000002</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>1.489200000000015</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="4"/>
-        <v>9.9473376243417455E-3</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <f>L4+SUM(H4,L9)</f>
-        <v>151.19760000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="L5">
+        <f>IF(ISNUMBER(SEARCH("SELL",K5)),C5*G5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>IF(ISNUMBER(SEARCH("SELL",K5)),L5-E5,H5+L5)</f>
+        <v>151.4718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="D5" s="5">
-        <v>58.14</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>58.14</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>53.488800000000005</v>
-      </c>
-      <c r="G5" s="5">
-        <v>58.71</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="2"/>
-        <v>151.4718</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4706000000000008</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="4"/>
-        <v>9.8039215686274161E-3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <f>L5+SUM(H5,L10)</f>
-        <v>151.4718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <f>SUM(H2:H5)</f>
         <v>609.26009999999997</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <f>SUM(I2:I5)</f>
         <v>9.5799000000000039</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <f>SUM(L2:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <f>SUM(M2:M5)</f>
         <v>609.26009999999997</v>
       </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>18.78</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>7.99</v>
       </c>
-      <c r="E7" s="5">
-        <f>D7</f>
-        <v>7.99</v>
-      </c>
-      <c r="F7" s="5">
-        <f>IF(D7="", "", D7*0.92)</f>
-        <v>7.3508000000000004</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="E7">
+        <f>C7*D7</f>
+        <v>150.0522</v>
+      </c>
+      <c r="F7">
+        <v>7.35</v>
+      </c>
+      <c r="G7">
         <v>8.6</v>
       </c>
-      <c r="H7" s="5">
-        <f>IF(OR(G7="", C7=""), "", G7*C7)</f>
+      <c r="H7">
+        <f>C7*G7</f>
         <v>161.50800000000001</v>
       </c>
-      <c r="I7" s="5">
-        <f>IF(OR(G7="", C7=""), "", (G7-E7)*C7)</f>
+      <c r="I7">
+        <f>(G7-D7)*C7</f>
         <v>11.455799999999989</v>
       </c>
-      <c r="J7" s="4">
-        <f>IF(OR(G7="", E7=""), "", G7/E7-1)</f>
-        <v>7.6345431789737184E-2</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7+SUM(H7,L10)</f>
+      <c r="J7" s="3">
+        <f>(G7-D7)/D7*100</f>
+        <v>7.6345431789737104</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7">
+        <f>IF(ISNUMBER(SEARCH("SELL",K7)),C7*G7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>IF(ISNUMBER(SEARCH("SELL",K7)),L7-E7,H7+L7)</f>
         <v>161.50800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
+      <c r="A8" t="s">
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>10.77</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>13.92</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" ref="E8:E10" si="5">D8</f>
-        <v>13.92</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F10" si="6">IF(D8="", "", D8*0.92)</f>
-        <v>12.8064</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E8">
+        <f>C8*D8</f>
+        <v>149.91839999999999</v>
+      </c>
+      <c r="F8">
+        <v>12.81</v>
+      </c>
+      <c r="G8">
         <v>13.17</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" ref="H8:H10" si="7">IF(OR(G8="", C8=""), "", G8*C8)</f>
+      <c r="H8">
+        <f>C8*G8</f>
         <v>141.8409</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" ref="I8:I10" si="8">IF(OR(G8="", C8=""), "", (G8-E8)*C8)</f>
+      <c r="I8">
+        <f>(G8-D8)*C8</f>
         <v>-8.0775000000000006</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" ref="J8:J10" si="9">IF(OR(G8="", E8=""), "", G8/E8-1)</f>
-        <v>-5.3879310344827624E-2</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <f>L8+SUM(H8,L13)</f>
+      <c r="J8" s="3">
+        <f>(G8-D8)/D8*100</f>
+        <v>-5.3879310344827589</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <f>IF(ISNUMBER(SEARCH("SELL",K8)),C8*G8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>IF(ISNUMBER(SEARCH("SELL",K8)),L8-E8,H8+L8)</f>
         <v>141.8409</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>4.38</v>
+      </c>
+      <c r="D9">
+        <v>34.18</v>
+      </c>
+      <c r="E9">
+        <f>C9*D9</f>
+        <v>149.70839999999998</v>
+      </c>
+      <c r="F9">
+        <v>31.45</v>
+      </c>
+      <c r="G9">
+        <v>34.86</v>
+      </c>
+      <c r="H9">
+        <f>C9*G9</f>
+        <v>152.68680000000001</v>
+      </c>
+      <c r="I9">
+        <f>(G9-D9)*C9</f>
+        <v>2.9783999999999988</v>
+      </c>
+      <c r="J9" s="3">
+        <f>(G9-D9)/D9*100</f>
+        <v>1.9894675248683431</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <f>IF(ISNUMBER(SEARCH("SELL",K9)),C9*G9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>IF(ISNUMBER(SEARCH("SELL",K9)),L9-E9,H9+L9)</f>
+        <v>152.68680000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2.58</v>
+      </c>
+      <c r="D10">
+        <v>58.14</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>150.00120000000001</v>
+      </c>
+      <c r="F10">
+        <v>53.49</v>
+      </c>
+      <c r="G10">
+        <v>56.69</v>
+      </c>
+      <c r="H10">
+        <f>C10*G10</f>
+        <v>146.2602</v>
+      </c>
+      <c r="I10">
+        <f>(G10-D10)*C10</f>
+        <v>-3.7410000000000077</v>
+      </c>
+      <c r="J10" s="3">
+        <f>(G10-D10)/D10*100</f>
+        <v>-2.4939800481596195</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <f>IF(ISNUMBER(SEARCH("SELL",K10)),C10*G10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>IF(ISNUMBER(SEARCH("SELL",K10)),L10-E10,H10+L10)</f>
+        <v>146.2602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="D9" s="5">
-        <v>34.18</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="5"/>
-        <v>34.18</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="6"/>
-        <v>31.445600000000002</v>
-      </c>
-      <c r="G9" s="5">
-        <v>34.86</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="7"/>
-        <v>152.68680000000001</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="8"/>
-        <v>2.9783999999999988</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="9"/>
-        <v>1.9894675248683491E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <f>L9+SUM(H9,L14)</f>
-        <v>152.68680000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="D10" s="5">
-        <v>58.14</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="5"/>
-        <v>58.14</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="6"/>
-        <v>53.488800000000005</v>
-      </c>
-      <c r="G10" s="5">
-        <v>56.69</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="7"/>
-        <v>146.2602</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="8"/>
-        <v>-3.7410000000000077</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="9"/>
-        <v>-2.4939800481596164E-2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10+SUM(H10,L15)</f>
-        <v>146.2602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <f>SUM(H7:H10)</f>
         <v>602.29590000000007</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <f>SUM(I7:I10)</f>
         <v>2.6156999999999799</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <f>SUM(L7:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <f>SUM(M7:M10)</f>
         <v>602.29590000000007</v>
       </c>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="M12" s="3"/>
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>18.78</v>
+      </c>
+      <c r="D12">
+        <v>7.99</v>
+      </c>
+      <c r="E12">
+        <f>C12*D12</f>
+        <v>150.0522</v>
+      </c>
+      <c r="F12">
+        <v>7.35</v>
+      </c>
+      <c r="G12">
+        <v>8.25</v>
+      </c>
+      <c r="H12">
+        <f>C12*G12</f>
+        <v>154.935</v>
+      </c>
+      <c r="I12">
+        <f>(G12-D12)*C12</f>
+        <v>4.882799999999996</v>
+      </c>
+      <c r="J12" s="3">
+        <f>(G12-D12)/D12*100</f>
+        <v>3.2540675844805982</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <f>IF(ISNUMBER(SEARCH("SELL",K12)),C12*G12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>IF(ISNUMBER(SEARCH("SELL",K12)),L12-E12,H12+L12)</f>
+        <v>154.935</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="M13" s="3"/>
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>10.77</v>
+      </c>
+      <c r="D13">
+        <v>13.92</v>
+      </c>
+      <c r="E13">
+        <f>C13*D13</f>
+        <v>149.91839999999999</v>
+      </c>
+      <c r="F13">
+        <v>12.81</v>
+      </c>
+      <c r="G13">
+        <v>12.82</v>
+      </c>
+      <c r="H13">
+        <f>C13*G13</f>
+        <v>138.07140000000001</v>
+      </c>
+      <c r="I13">
+        <f>(G13-D13)*C13</f>
+        <v>-11.846999999999996</v>
+      </c>
+      <c r="J13" s="3">
+        <f>(G13-D13)/D13*100</f>
+        <v>-7.9022988505747103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="3">
+        <f>IF(ISNUMBER(SEARCH("SELL",K13)),C13*G13,0)</f>
+        <v>138.07140000000001</v>
+      </c>
+      <c r="M13">
+        <f>IF(ISNUMBER(SEARCH("SELL",K13)),L13-E13,H13+L13)</f>
+        <v>-11.84699999999998</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>11.32</v>
+      </c>
+      <c r="D14">
+        <v>13.25</v>
+      </c>
+      <c r="E14">
+        <f>C14*D14</f>
+        <v>149.99</v>
+      </c>
+      <c r="F14">
+        <v>12.19</v>
+      </c>
+      <c r="G14">
+        <v>12.84</v>
+      </c>
+      <c r="H14">
+        <f>C14*G14</f>
+        <v>145.34880000000001</v>
+      </c>
+      <c r="I14">
+        <f>(G14-D14)*C14</f>
+        <v>-4.6412000000000013</v>
+      </c>
+      <c r="J14" s="3">
+        <f>(G14-D14)/D14*100</f>
+        <v>-3.0943396226415105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <f>IF(ISNUMBER(SEARCH("SELL",K14)),C14*G14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>IF(ISNUMBER(SEARCH("SELL",K14)),L14-E14,H14+L14)</f>
+        <v>145.34880000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I15" s="3"/>
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>4.38</v>
+      </c>
+      <c r="D15">
+        <v>34.18</v>
+      </c>
+      <c r="E15">
+        <f>C15*D15</f>
+        <v>149.70839999999998</v>
+      </c>
+      <c r="F15">
+        <v>31.45</v>
+      </c>
+      <c r="G15">
+        <v>34.89</v>
+      </c>
+      <c r="H15">
+        <f>C15*G15</f>
+        <v>152.81819999999999</v>
+      </c>
+      <c r="I15">
+        <f>(G15-D15)*C15</f>
+        <v>3.1098000000000035</v>
+      </c>
+      <c r="J15" s="3">
+        <f>(G15-D15)/D15*100</f>
+        <v>2.0772381509654791</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <f>IF(ISNUMBER(SEARCH("SELL",K15)),C15*G15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>IF(ISNUMBER(SEARCH("SELL",K15)),L15-E15,H15+L15)</f>
+        <v>152.81819999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2.58</v>
+      </c>
+      <c r="D16">
+        <v>58.14</v>
+      </c>
+      <c r="E16">
+        <f>C16*D16</f>
+        <v>150.00120000000001</v>
+      </c>
+      <c r="F16">
+        <v>53.49</v>
+      </c>
+      <c r="G16">
+        <v>58.87</v>
+      </c>
+      <c r="H16">
+        <f>C16*G16</f>
+        <v>151.88460000000001</v>
+      </c>
+      <c r="I16">
+        <f>(G16-D16)*C16</f>
+        <v>1.883399999999992</v>
+      </c>
+      <c r="J16" s="3">
+        <f>(G16-D16)/D16*100</f>
+        <v>1.2555899552803524</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <f>IF(ISNUMBER(SEARCH("SELL",K16)),C16*G16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>IF(ISNUMBER(SEARCH("SELL",K16)),L16-E16,H16+L16)</f>
+        <v>151.88460000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <f>SUM(H12:H16)</f>
+        <v>743.05799999999988</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SUM(I12:I16)</f>
+        <v>-6.6122000000000059</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="4">
+        <f>SUM(L12:L16)+12.04</f>
+        <v>150.1114</v>
+      </c>
+      <c r="M17" s="2">
+        <f>SUM(M12:M16)</f>
+        <v>593.13960000000009</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Start Your Own/chatgpt_portfolio_update.xlsx
+++ b/Start Your Own/chatgpt_portfolio_update.xlsx
@@ -1,147 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferg/work/mycode/ChatGPT-Micro-Cap-Experiment/Start Your Own/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAF92F4-0D53-3D44-8AB1-8D8694589CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portfolio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>Buy Price</t>
-  </si>
-  <si>
-    <t>Cost Basis</t>
-  </si>
-  <si>
-    <t>Stop Loss</t>
-  </si>
-  <si>
-    <t>Current Price</t>
-  </si>
-  <si>
-    <t>Total Value</t>
-  </si>
-  <si>
-    <t>PnL</t>
-  </si>
-  <si>
-    <t>PnL %</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Cash Balance</t>
-  </si>
-  <si>
-    <t>Total Equity</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
-    <t>EVLV</t>
-  </si>
-  <si>
-    <t>BUY - Manual Purchase</t>
-  </si>
-  <si>
-    <t>SERV</t>
-  </si>
-  <si>
-    <t>CWCO</t>
-  </si>
-  <si>
-    <t>PVLA</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>HOLD</t>
-  </si>
-  <si>
-    <t>2025-09-24</t>
-  </si>
-  <si>
-    <t>SELL - Stop Loss Triggered</t>
-  </si>
-  <si>
-    <t>Stop loss triggered</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,28 +72,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,810 +442,1396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="10"/>
+    <col width="28" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Buy Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cost Basis</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Stop Loss</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PnL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PnL %</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Cash Balance</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EVLV</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>18.78</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7.99</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>150.0522</v>
-      </c>
-      <c r="F2">
+        <v/>
+      </c>
+      <c r="F2" t="n">
         <v>7.35</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>8.44</v>
       </c>
       <c r="H2">
         <f>C2*G2</f>
-        <v>158.50319999999999</v>
+        <v/>
       </c>
       <c r="I2">
         <f>(G2-D2)*C2</f>
-        <v>8.4509999999999863</v>
+        <v/>
       </c>
       <c r="J2" s="3">
         <f>(G2-D2)/D2*100</f>
-        <v>5.6320400500625691</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BUY - Manual Purchase</t>
+        </is>
       </c>
       <c r="L2">
         <f>IF(ISNUMBER(SEARCH("SELL",K2)),C2*G2,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M2">
         <f>IF(ISNUMBER(SEARCH("SELL",K2)),L2-E2,H2+L2)</f>
-        <v>158.50319999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>10.77</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>13.92</v>
       </c>
       <c r="E3">
         <f>C3*D3</f>
-        <v>149.91839999999999</v>
-      </c>
-      <c r="F3">
+        <v/>
+      </c>
+      <c r="F3" t="n">
         <v>12.81</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>13.75</v>
       </c>
       <c r="H3">
         <f>C3*G3</f>
-        <v>148.08750000000001</v>
+        <v/>
       </c>
       <c r="I3">
         <f>(G3-D3)*C3</f>
-        <v>-1.8308999999999991</v>
+        <v/>
       </c>
       <c r="J3" s="3">
         <f>(G3-D3)/D3*100</f>
-        <v>-1.2212643678160915</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BUY - Manual Purchase</t>
+        </is>
       </c>
       <c r="L3">
         <f>IF(ISNUMBER(SEARCH("SELL",K3)),C3*G3,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M3">
         <f>IF(ISNUMBER(SEARCH("SELL",K3)),L3-E3,H3+L3)</f>
-        <v>148.08750000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CWCO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4.38</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>34.18</v>
       </c>
       <c r="E4">
         <f>C4*D4</f>
-        <v>149.70839999999998</v>
-      </c>
-      <c r="F4">
+        <v/>
+      </c>
+      <c r="F4" t="n">
         <v>31.45</v>
       </c>
-      <c r="G4">
-        <v>34.520000000000003</v>
+      <c r="G4" t="n">
+        <v>34.52</v>
       </c>
       <c r="H4">
         <f>C4*G4</f>
-        <v>151.19760000000002</v>
+        <v/>
       </c>
       <c r="I4">
         <f>(G4-D4)*C4</f>
-        <v>1.489200000000015</v>
+        <v/>
       </c>
       <c r="J4" s="3">
         <f>(G4-D4)/D4*100</f>
-        <v>0.99473376243418199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BUY - Manual Purchase</t>
+        </is>
       </c>
       <c r="L4">
         <f>IF(ISNUMBER(SEARCH("SELL",K4)),C4*G4,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M4">
         <f>IF(ISNUMBER(SEARCH("SELL",K4)),L4-E4,H4+L4)</f>
-        <v>151.19760000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PVLA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2.58</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>58.14</v>
       </c>
       <c r="E5">
         <f>C5*D5</f>
-        <v>150.00120000000001</v>
-      </c>
-      <c r="F5">
+        <v/>
+      </c>
+      <c r="F5" t="n">
         <v>53.49</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>58.71</v>
       </c>
       <c r="H5">
         <f>C5*G5</f>
-        <v>151.4718</v>
+        <v/>
       </c>
       <c r="I5">
         <f>(G5-D5)*C5</f>
-        <v>1.4706000000000008</v>
+        <v/>
       </c>
       <c r="J5" s="3">
         <f>(G5-D5)/D5*100</f>
-        <v>0.98039215686274561</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BUY - Manual Purchase</t>
+        </is>
       </c>
       <c r="L5">
         <f>IF(ISNUMBER(SEARCH("SELL",K5)),C5*G5,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M5">
         <f>IF(ISNUMBER(SEARCH("SELL",K5)),L5-E5,H5+L5)</f>
-        <v>151.4718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
       <c r="H6" s="2">
         <f>SUM(H2:H5)</f>
-        <v>609.26009999999997</v>
+        <v/>
       </c>
       <c r="I6" s="2">
         <f>SUM(I2:I5)</f>
-        <v>9.5799000000000039</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+        <v/>
+      </c>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="2" t="n"/>
       <c r="L6" s="2">
         <f>SUM(L2:L5)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M6" s="2">
         <f>SUM(M2:M5)</f>
-        <v>609.26009999999997</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+        <v/>
+      </c>
+      <c r="N6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EVLV</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>18.78</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>7.99</v>
       </c>
       <c r="E7">
         <f>C7*D7</f>
-        <v>150.0522</v>
-      </c>
-      <c r="F7">
+        <v/>
+      </c>
+      <c r="F7" t="n">
         <v>7.35</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>8.6</v>
       </c>
       <c r="H7">
         <f>C7*G7</f>
-        <v>161.50800000000001</v>
+        <v/>
       </c>
       <c r="I7">
         <f>(G7-D7)*C7</f>
-        <v>11.455799999999989</v>
+        <v/>
       </c>
       <c r="J7" s="3">
         <f>(G7-D7)/D7*100</f>
-        <v>7.6345431789737104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L7">
         <f>IF(ISNUMBER(SEARCH("SELL",K7)),C7*G7,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M7">
         <f>IF(ISNUMBER(SEARCH("SELL",K7)),L7-E7,H7+L7)</f>
-        <v>161.50800000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>10.77</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>13.92</v>
       </c>
       <c r="E8">
         <f>C8*D8</f>
-        <v>149.91839999999999</v>
-      </c>
-      <c r="F8">
+        <v/>
+      </c>
+      <c r="F8" t="n">
         <v>12.81</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>13.17</v>
       </c>
       <c r="H8">
         <f>C8*G8</f>
-        <v>141.8409</v>
+        <v/>
       </c>
       <c r="I8">
         <f>(G8-D8)*C8</f>
-        <v>-8.0775000000000006</v>
+        <v/>
       </c>
       <c r="J8" s="3">
         <f>(G8-D8)/D8*100</f>
-        <v>-5.3879310344827589</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L8">
         <f>IF(ISNUMBER(SEARCH("SELL",K8)),C8*G8,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M8">
         <f>IF(ISNUMBER(SEARCH("SELL",K8)),L8-E8,H8+L8)</f>
-        <v>141.8409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CWCO</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>4.38</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>34.18</v>
       </c>
       <c r="E9">
         <f>C9*D9</f>
-        <v>149.70839999999998</v>
-      </c>
-      <c r="F9">
+        <v/>
+      </c>
+      <c r="F9" t="n">
         <v>31.45</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>34.86</v>
       </c>
       <c r="H9">
         <f>C9*G9</f>
-        <v>152.68680000000001</v>
+        <v/>
       </c>
       <c r="I9">
         <f>(G9-D9)*C9</f>
-        <v>2.9783999999999988</v>
+        <v/>
       </c>
       <c r="J9" s="3">
         <f>(G9-D9)/D9*100</f>
-        <v>1.9894675248683431</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L9">
         <f>IF(ISNUMBER(SEARCH("SELL",K9)),C9*G9,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M9">
         <f>IF(ISNUMBER(SEARCH("SELL",K9)),L9-E9,H9+L9)</f>
-        <v>152.68680000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PVLA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>2.58</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>58.14</v>
       </c>
       <c r="E10">
         <f>C10*D10</f>
-        <v>150.00120000000001</v>
-      </c>
-      <c r="F10">
+        <v/>
+      </c>
+      <c r="F10" t="n">
         <v>53.49</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>56.69</v>
       </c>
       <c r="H10">
         <f>C10*G10</f>
-        <v>146.2602</v>
+        <v/>
       </c>
       <c r="I10">
         <f>(G10-D10)*C10</f>
-        <v>-3.7410000000000077</v>
+        <v/>
       </c>
       <c r="J10" s="3">
         <f>(G10-D10)/D10*100</f>
-        <v>-2.4939800481596195</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L10">
         <f>IF(ISNUMBER(SEARCH("SELL",K10)),C10*G10,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M10">
         <f>IF(ISNUMBER(SEARCH("SELL",K10)),L10-E10,H10+L10)</f>
-        <v>146.2602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
       <c r="H11" s="2">
         <f>SUM(H7:H10)</f>
-        <v>602.29590000000007</v>
+        <v/>
       </c>
       <c r="I11" s="2">
         <f>SUM(I7:I10)</f>
-        <v>2.6156999999999799</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="2" t="n"/>
       <c r="L11" s="2">
         <f>SUM(L7:L10)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M11" s="2">
         <f>SUM(M7:M10)</f>
-        <v>602.29590000000007</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
+        <v/>
+      </c>
+      <c r="N11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EVLV</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>18.78</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>7.99</v>
       </c>
       <c r="E12">
         <f>C12*D12</f>
-        <v>150.0522</v>
-      </c>
-      <c r="F12">
+        <v/>
+      </c>
+      <c r="F12" t="n">
         <v>7.35</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>8.25</v>
       </c>
       <c r="H12">
         <f>C12*G12</f>
-        <v>154.935</v>
+        <v/>
       </c>
       <c r="I12">
         <f>(G12-D12)*C12</f>
-        <v>4.882799999999996</v>
+        <v/>
       </c>
       <c r="J12" s="3">
         <f>(G12-D12)/D12*100</f>
-        <v>3.2540675844805982</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L12">
         <f>IF(ISNUMBER(SEARCH("SELL",K12)),C12*G12,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M12">
         <f>IF(ISNUMBER(SEARCH("SELL",K12)),L12-E12,H12+L12)</f>
-        <v>154.935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>10.77</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>13.92</v>
       </c>
       <c r="E13">
         <f>C13*D13</f>
-        <v>149.91839999999999</v>
-      </c>
-      <c r="F13">
+        <v/>
+      </c>
+      <c r="F13" t="n">
         <v>12.81</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>12.82</v>
       </c>
       <c r="H13">
         <f>C13*G13</f>
-        <v>138.07140000000001</v>
+        <v/>
       </c>
       <c r="I13">
         <f>(G13-D13)*C13</f>
-        <v>-11.846999999999996</v>
+        <v/>
       </c>
       <c r="J13" s="3">
         <f>(G13-D13)/D13*100</f>
-        <v>-7.9022988505747103</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
+        <v/>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SELL - Stop Loss Triggered</t>
+        </is>
       </c>
       <c r="L13" s="3">
         <f>IF(ISNUMBER(SEARCH("SELL",K13)),C13*G13,0)</f>
-        <v>138.07140000000001</v>
+        <v/>
       </c>
       <c r="M13">
         <f>IF(ISNUMBER(SEARCH("SELL",K13)),L13-E13,H13+L13)</f>
-        <v>-11.84699999999998</v>
-      </c>
-      <c r="N13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
+        <v/>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Stop loss triggered</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>11.32</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>13.25</v>
       </c>
       <c r="E14">
         <f>C14*D14</f>
-        <v>149.99</v>
-      </c>
-      <c r="F14">
+        <v/>
+      </c>
+      <c r="F14" t="n">
         <v>12.19</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>12.84</v>
       </c>
       <c r="H14">
         <f>C14*G14</f>
-        <v>145.34880000000001</v>
+        <v/>
       </c>
       <c r="I14">
         <f>(G14-D14)*C14</f>
-        <v>-4.6412000000000013</v>
+        <v/>
       </c>
       <c r="J14" s="3">
         <f>(G14-D14)/D14*100</f>
-        <v>-3.0943396226415105</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L14">
         <f>IF(ISNUMBER(SEARCH("SELL",K14)),C14*G14,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M14">
         <f>IF(ISNUMBER(SEARCH("SELL",K14)),L14-E14,H14+L14)</f>
-        <v>145.34880000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CWCO</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>4.38</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>34.18</v>
       </c>
       <c r="E15">
         <f>C15*D15</f>
-        <v>149.70839999999998</v>
-      </c>
-      <c r="F15">
+        <v/>
+      </c>
+      <c r="F15" t="n">
         <v>31.45</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>34.89</v>
       </c>
       <c r="H15">
         <f>C15*G15</f>
-        <v>152.81819999999999</v>
+        <v/>
       </c>
       <c r="I15">
         <f>(G15-D15)*C15</f>
-        <v>3.1098000000000035</v>
+        <v/>
       </c>
       <c r="J15" s="3">
         <f>(G15-D15)/D15*100</f>
-        <v>2.0772381509654791</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L15">
         <f>IF(ISNUMBER(SEARCH("SELL",K15)),C15*G15,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M15">
         <f>IF(ISNUMBER(SEARCH("SELL",K15)),L15-E15,H15+L15)</f>
-        <v>152.81819999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PVLA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>2.58</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>58.14</v>
       </c>
       <c r="E16">
         <f>C16*D16</f>
-        <v>150.00120000000001</v>
-      </c>
-      <c r="F16">
+        <v/>
+      </c>
+      <c r="F16" t="n">
         <v>53.49</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>58.87</v>
       </c>
       <c r="H16">
         <f>C16*G16</f>
-        <v>151.88460000000001</v>
+        <v/>
       </c>
       <c r="I16">
         <f>(G16-D16)*C16</f>
-        <v>1.883399999999992</v>
+        <v/>
       </c>
       <c r="J16" s="3">
         <f>(G16-D16)/D16*100</f>
-        <v>1.2555899552803524</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
       </c>
       <c r="L16">
         <f>IF(ISNUMBER(SEARCH("SELL",K16)),C16*G16,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M16">
         <f>IF(ISNUMBER(SEARCH("SELL",K16)),L16-E16,H16+L16)</f>
-        <v>151.88460000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
       <c r="H17" s="2">
         <f>SUM(H12:H16)</f>
-        <v>743.05799999999988</v>
+        <v/>
       </c>
       <c r="I17" s="2">
         <f>SUM(I12:I16)</f>
-        <v>-6.6122000000000059</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+        <v/>
+      </c>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="4">
         <f>SUM(L12:L16)+12.04</f>
-        <v>150.1114</v>
+        <v/>
       </c>
       <c r="M17" s="2">
         <f>SUM(M12:M16)</f>
-        <v>593.13960000000009</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v/>
+      </c>
+      <c r="N17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EVLV</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E18" t="n">
+        <v>150.0522</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="H18">
+        <f>C18*G18</f>
+        <v/>
+      </c>
+      <c r="I18">
+        <f>(G18-D18)*C18</f>
+        <v/>
+      </c>
+      <c r="J18" s="3">
+        <f>(G18-D18)/D18*100</f>
+        <v/>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>H18+L18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="E19" t="n">
+        <v>149.9184</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="H19">
+        <f>C19*G19</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>(G19-D19)*C19</f>
+        <v/>
+      </c>
+      <c r="J19" s="3">
+        <f>(G19-D19)/D19*100</f>
+        <v/>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>SELL - Stop Loss Triggered</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>131.72</v>
+      </c>
+      <c r="M19">
+        <f>IF(ISNUMBER(SEARCH("SELL",K19)),L19-E19,H19+L19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CWCO</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D20" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>149.7084</v>
+      </c>
+      <c r="F20" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="H20">
+        <f>C20*G20</f>
+        <v/>
+      </c>
+      <c r="I20">
+        <f>(G20-D20)*C20</f>
+        <v/>
+      </c>
+      <c r="J20" s="3">
+        <f>(G20-D20)/D20*100</f>
+        <v/>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>H20+L20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PVLA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D21" t="n">
+        <v>58.14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>150.0012</v>
+      </c>
+      <c r="F21" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G21" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="H21">
+        <f>C21*G21</f>
+        <v/>
+      </c>
+      <c r="I21">
+        <f>(G21-D21)*C21</f>
+        <v/>
+      </c>
+      <c r="J21" s="3">
+        <f>(G21-D21)/D21*100</f>
+        <v/>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>H21+L21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2">
+        <f>SUM(H18:H21)</f>
+        <v/>
+      </c>
+      <c r="I22" s="2">
+        <f>SUM(I18:I21)</f>
+        <v/>
+      </c>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2">
+        <f>SUM(L18:L21)</f>
+        <v/>
+      </c>
+      <c r="M22" s="2">
+        <f>SUM(M18:M21)+L22</f>
+        <v/>
+      </c>
+      <c r="N22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="J23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="J24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="J25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="J26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="J27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="J28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="J29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="J30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="J31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="J32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="J33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="J34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="J35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="J36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="J37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="J38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="J39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="J40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="J41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="J42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EVLV</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E43" t="n">
+        <v>150.0522</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="H43">
+        <f>C43*G43</f>
+        <v/>
+      </c>
+      <c r="I43">
+        <f>(G43-D43)*C43</f>
+        <v/>
+      </c>
+      <c r="J43">
+        <f>(G43-D43)/D43*100</f>
+        <v/>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f>H43+L43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="E44" t="n">
+        <v>149.9184</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="H44">
+        <f>C44*G44</f>
+        <v/>
+      </c>
+      <c r="I44">
+        <f>(G44-D44)*C44</f>
+        <v/>
+      </c>
+      <c r="J44">
+        <f>(G44-D44)/D44*100</f>
+        <v/>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f>H44+L44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CWCO</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D45" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="E45" t="n">
+        <v>149.7084</v>
+      </c>
+      <c r="F45" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="H45">
+        <f>C45*G45</f>
+        <v/>
+      </c>
+      <c r="I45">
+        <f>(G45-D45)*C45</f>
+        <v/>
+      </c>
+      <c r="J45">
+        <f>(G45-D45)/D45*100</f>
+        <v/>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f>H45+L45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PVLA</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D46" t="n">
+        <v>58.14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>150.0012</v>
+      </c>
+      <c r="F46" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="H46">
+        <f>C46*G46</f>
+        <v/>
+      </c>
+      <c r="I46">
+        <f>(G46-D46)*C46</f>
+        <v/>
+      </c>
+      <c r="J46">
+        <f>(G46-D46)/D46*100</f>
+        <v/>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f>H46+L46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v/>
+      </c>
+      <c r="D47" t="n">
+        <v/>
+      </c>
+      <c r="E47" t="n">
+        <v/>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+      <c r="H47">
+        <f>SUM(H43:H46)</f>
+        <v/>
+      </c>
+      <c r="I47">
+        <f>SUM(I43:I46)</f>
+        <v/>
+      </c>
+      <c r="L47">
+        <f>SUM(L43:L46)</f>
+        <v/>
+      </c>
+      <c r="M47">
+        <f>SUM(M43:M46)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Start Your Own/chatgpt_portfolio_update.xlsx
+++ b/Start Your Own/chatgpt_portfolio_update.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portfolio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Portfolio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,42 +26,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFE7E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FF4F81BD"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -74,34 +46,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="date_style" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -464,103 +425,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="28" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Shares</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Buy Price</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cost Basis</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Stop Loss</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Current Price</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total Value</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PnL</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PnL %</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cash Balance</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Total Equity</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2025-09-22</t>
         </is>
@@ -576,9 +522,8 @@
       <c r="D2" t="n">
         <v>7.99</v>
       </c>
-      <c r="E2">
-        <f>IF(AND(C2&lt;&gt;"",D2&lt;&gt;""),C2*D2,"")</f>
-        <v/>
+      <c r="E2" t="n">
+        <v>150.0522</v>
       </c>
       <c r="F2" t="n">
         <v>7.35</v>
@@ -586,30 +531,28 @@
       <c r="G2" t="n">
         <v>8.44</v>
       </c>
-      <c r="H2">
-        <f>IF(AND(C2&lt;&gt;"",G2&lt;&gt;""),C2*G2,"")</f>
-        <v/>
-      </c>
-      <c r="I2">
-        <f>IF(AND(C2&lt;&gt;"",D2&lt;&gt;"",G2&lt;&gt;""),C2*(G2-D2),"")</f>
-        <v/>
-      </c>
-      <c r="J2">
-        <f>IF(AND(D2&lt;&gt;"",D2&lt;&gt;0,G2&lt;&gt;""),((G2-D2)/D2)*100,"")</f>
-        <v/>
+      <c r="H2" t="n">
+        <v>158.5032</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.450999999999986</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.632040050062569</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>BUY - Manual Purchase</t>
         </is>
       </c>
-      <c r="M2" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K2)),I2,H2+L2)</f>
-        <v/>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>158.5032</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2025-09-22</t>
         </is>
@@ -625,9 +568,8 @@
       <c r="D3" t="n">
         <v>13.92</v>
       </c>
-      <c r="E3">
-        <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;""),C3*D3,"")</f>
-        <v/>
+      <c r="E3" t="n">
+        <v>149.9184</v>
       </c>
       <c r="F3" t="n">
         <v>12.81</v>
@@ -635,30 +577,28 @@
       <c r="G3" t="n">
         <v>13.75</v>
       </c>
-      <c r="H3">
-        <f>IF(AND(C3&lt;&gt;"",G3&lt;&gt;""),C3*G3,"")</f>
-        <v/>
-      </c>
-      <c r="I3">
-        <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",G3&lt;&gt;""),C3*(G3-D3),"")</f>
-        <v/>
-      </c>
-      <c r="J3">
-        <f>IF(AND(D3&lt;&gt;"",D3&lt;&gt;0,G3&lt;&gt;""),((G3-D3)/D3)*100,"")</f>
-        <v/>
+      <c r="H3" t="n">
+        <v>148.0875</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.830899999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.221264367816091</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>BUY - Manual Purchase</t>
         </is>
       </c>
-      <c r="M3" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K3)),I3,H3+L3)</f>
-        <v/>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>148.0875</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2025-09-22</t>
         </is>
@@ -674,9 +614,8 @@
       <c r="D4" t="n">
         <v>34.18</v>
       </c>
-      <c r="E4">
-        <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;""),C4*D4,"")</f>
-        <v/>
+      <c r="E4" t="n">
+        <v>149.7084</v>
       </c>
       <c r="F4" t="n">
         <v>31.45</v>
@@ -684,30 +623,28 @@
       <c r="G4" t="n">
         <v>34.52</v>
       </c>
-      <c r="H4">
-        <f>IF(AND(C4&lt;&gt;"",G4&lt;&gt;""),C4*G4,"")</f>
-        <v/>
-      </c>
-      <c r="I4">
-        <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;"",G4&lt;&gt;""),C4*(G4-D4),"")</f>
-        <v/>
-      </c>
-      <c r="J4">
-        <f>IF(AND(D4&lt;&gt;"",D4&lt;&gt;0,G4&lt;&gt;""),((G4-D4)/D4)*100,"")</f>
-        <v/>
+      <c r="H4" t="n">
+        <v>151.1976</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.489200000000015</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.994733762434182</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>BUY - Manual Purchase</t>
         </is>
       </c>
-      <c r="M4" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K4)),I4,H4+L4)</f>
-        <v/>
-      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>151.1976</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2025-09-22</t>
         </is>
@@ -723,9 +660,8 @@
       <c r="D5" t="n">
         <v>58.14</v>
       </c>
-      <c r="E5">
-        <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;""),C5*D5,"")</f>
-        <v/>
+      <c r="E5" t="n">
+        <v>150.0012</v>
       </c>
       <c r="F5" t="n">
         <v>53.49</v>
@@ -733,69 +669,62 @@
       <c r="G5" t="n">
         <v>58.71</v>
       </c>
-      <c r="H5">
-        <f>IF(AND(C5&lt;&gt;"",G5&lt;&gt;""),C5*G5,"")</f>
-        <v/>
-      </c>
-      <c r="I5">
-        <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;"",G5&lt;&gt;""),C5*(G5-D5),"")</f>
-        <v/>
-      </c>
-      <c r="J5">
-        <f>IF(AND(D5&lt;&gt;"",D5&lt;&gt;0,G5&lt;&gt;""),((G5-D5)/D5)*100,"")</f>
-        <v/>
+      <c r="H5" t="n">
+        <v>151.4718</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.470600000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9803921568627456</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>BUY - Manual Purchase</t>
         </is>
       </c>
-      <c r="M5" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K5)),I5,H5+L5)</f>
-        <v/>
-      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>151.4718</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2025-09-22</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1">
-        <f>SUM(E2:E5)</f>
-        <v/>
-      </c>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1">
-        <f>SUM(H2:H5)</f>
-        <v/>
-      </c>
-      <c r="I6" s="1">
-        <f>SUM(I2:I5)</f>
-        <v/>
-      </c>
-      <c r="J6" s="1" t="n"/>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1">
-        <f>SUM(L2:L5)</f>
-        <v/>
-      </c>
-      <c r="M6" s="6">
-        <f>SUM(M2:M5)</f>
-        <v/>
-      </c>
-      <c r="N6" s="1" t="n"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>599.6802</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>609.2601</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.579900000000004</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>609.2601</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2025-09-23</t>
         </is>
@@ -811,9 +740,8 @@
       <c r="D7" t="n">
         <v>7.99</v>
       </c>
-      <c r="E7">
-        <f>IF(AND(C7&lt;&gt;"",D7&lt;&gt;""),C7*D7,"")</f>
-        <v/>
+      <c r="E7" t="n">
+        <v>150.0522</v>
       </c>
       <c r="F7" t="n">
         <v>7.35</v>
@@ -821,30 +749,28 @@
       <c r="G7" t="n">
         <v>8.6</v>
       </c>
-      <c r="H7">
-        <f>IF(AND(C7&lt;&gt;"",G7&lt;&gt;""),C7*G7,"")</f>
-        <v/>
-      </c>
-      <c r="I7">
-        <f>IF(AND(C7&lt;&gt;"",D7&lt;&gt;"",G7&lt;&gt;""),C7*(G7-D7),"")</f>
-        <v/>
-      </c>
-      <c r="J7">
-        <f>IF(AND(D7&lt;&gt;"",D7&lt;&gt;0,G7&lt;&gt;""),((G7-D7)/D7)*100,"")</f>
-        <v/>
+      <c r="H7" t="n">
+        <v>161.508</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.45579999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.63454317897371</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M7" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K7)),I7,H7+L7)</f>
-        <v/>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>161.508</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2025-09-23</t>
         </is>
@@ -860,9 +786,8 @@
       <c r="D8" t="n">
         <v>13.92</v>
       </c>
-      <c r="E8">
-        <f>IF(AND(C8&lt;&gt;"",D8&lt;&gt;""),C8*D8,"")</f>
-        <v/>
+      <c r="E8" t="n">
+        <v>149.9184</v>
       </c>
       <c r="F8" t="n">
         <v>12.81</v>
@@ -870,30 +795,28 @@
       <c r="G8" t="n">
         <v>13.17</v>
       </c>
-      <c r="H8">
-        <f>IF(AND(C8&lt;&gt;"",G8&lt;&gt;""),C8*G8,"")</f>
-        <v/>
-      </c>
-      <c r="I8">
-        <f>IF(AND(C8&lt;&gt;"",D8&lt;&gt;"",G8&lt;&gt;""),C8*(G8-D8),"")</f>
-        <v/>
-      </c>
-      <c r="J8">
-        <f>IF(AND(D8&lt;&gt;"",D8&lt;&gt;0,G8&lt;&gt;""),((G8-D8)/D8)*100,"")</f>
-        <v/>
+      <c r="H8" t="n">
+        <v>141.8409</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-8.077500000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-5.387931034482759</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M8" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K8)),I8,H8+L8)</f>
-        <v/>
-      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>141.8409</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2025-09-23</t>
         </is>
@@ -909,9 +832,8 @@
       <c r="D9" t="n">
         <v>34.18</v>
       </c>
-      <c r="E9">
-        <f>IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),C9*D9,"")</f>
-        <v/>
+      <c r="E9" t="n">
+        <v>149.7084</v>
       </c>
       <c r="F9" t="n">
         <v>31.45</v>
@@ -919,30 +841,28 @@
       <c r="G9" t="n">
         <v>34.86</v>
       </c>
-      <c r="H9">
-        <f>IF(AND(C9&lt;&gt;"",G9&lt;&gt;""),C9*G9,"")</f>
-        <v/>
-      </c>
-      <c r="I9">
-        <f>IF(AND(C9&lt;&gt;"",D9&lt;&gt;"",G9&lt;&gt;""),C9*(G9-D9),"")</f>
-        <v/>
-      </c>
-      <c r="J9">
-        <f>IF(AND(D9&lt;&gt;"",D9&lt;&gt;0,G9&lt;&gt;""),((G9-D9)/D9)*100,"")</f>
-        <v/>
+      <c r="H9" t="n">
+        <v>152.6868</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.978399999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.989467524868343</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M9" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K9)),I9,H9+L9)</f>
-        <v/>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>152.6868</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2025-09-23</t>
         </is>
@@ -958,9 +878,8 @@
       <c r="D10" t="n">
         <v>58.14</v>
       </c>
-      <c r="E10">
-        <f>IF(AND(C10&lt;&gt;"",D10&lt;&gt;""),C10*D10,"")</f>
-        <v/>
+      <c r="E10" t="n">
+        <v>150.0012</v>
       </c>
       <c r="F10" t="n">
         <v>53.49</v>
@@ -968,69 +887,62 @@
       <c r="G10" t="n">
         <v>56.69</v>
       </c>
-      <c r="H10">
-        <f>IF(AND(C10&lt;&gt;"",G10&lt;&gt;""),C10*G10,"")</f>
-        <v/>
-      </c>
-      <c r="I10">
-        <f>IF(AND(C10&lt;&gt;"",D10&lt;&gt;"",G10&lt;&gt;""),C10*(G10-D10),"")</f>
-        <v/>
-      </c>
-      <c r="J10">
-        <f>IF(AND(D10&lt;&gt;"",D10&lt;&gt;0,G10&lt;&gt;""),((G10-D10)/D10)*100,"")</f>
-        <v/>
+      <c r="H10" t="n">
+        <v>146.2602</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3.741000000000008</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2.493980048159619</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M10" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K10)),I10,H10+L10)</f>
-        <v/>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>146.2602</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2025-09-23</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1">
-        <f>SUM(E7:E10)</f>
-        <v/>
-      </c>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1">
-        <f>SUM(H7:H10)</f>
-        <v/>
-      </c>
-      <c r="I11" s="1">
-        <f>SUM(I7:I10)</f>
-        <v/>
-      </c>
-      <c r="J11" s="1" t="n"/>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1">
-        <f>SUM(L7:L10)</f>
-        <v/>
-      </c>
-      <c r="M11" s="6">
-        <f>SUM(M7:M10)</f>
-        <v/>
-      </c>
-      <c r="N11" s="1" t="n"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>599.6802</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>602.2959000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.61569999999998</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>602.2959000000001</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
@@ -1046,9 +958,8 @@
       <c r="D12" t="n">
         <v>7.99</v>
       </c>
-      <c r="E12">
-        <f>IF(AND(C12&lt;&gt;"",D12&lt;&gt;""),C12*D12,"")</f>
-        <v/>
+      <c r="E12" t="n">
+        <v>150.0522</v>
       </c>
       <c r="F12" t="n">
         <v>7.35</v>
@@ -1056,30 +967,28 @@
       <c r="G12" t="n">
         <v>8.25</v>
       </c>
-      <c r="H12">
-        <f>IF(AND(C12&lt;&gt;"",G12&lt;&gt;""),C12*G12,"")</f>
-        <v/>
-      </c>
-      <c r="I12">
-        <f>IF(AND(C12&lt;&gt;"",D12&lt;&gt;"",G12&lt;&gt;""),C12*(G12-D12),"")</f>
-        <v/>
-      </c>
-      <c r="J12">
-        <f>IF(AND(D12&lt;&gt;"",D12&lt;&gt;0,G12&lt;&gt;""),((G12-D12)/D12)*100,"")</f>
-        <v/>
+      <c r="H12" t="n">
+        <v>154.935</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.882799999999996</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.254067584480598</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M12" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K12)),I12,H12+L12)</f>
-        <v/>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>154.935</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
@@ -1095,9 +1004,8 @@
       <c r="D13" t="n">
         <v>13.92</v>
       </c>
-      <c r="E13">
-        <f>IF(AND(C13&lt;&gt;"",D13&lt;&gt;""),C13*D13,"")</f>
-        <v/>
+      <c r="E13" t="n">
+        <v>149.9184</v>
       </c>
       <c r="F13" t="n">
         <v>12.81</v>
@@ -1105,26 +1013,23 @@
       <c r="G13" t="n">
         <v>12.82</v>
       </c>
-      <c r="H13">
-        <f>IF(AND(C13&lt;&gt;"",G13&lt;&gt;""),C13*G13,"")</f>
-        <v/>
-      </c>
-      <c r="I13">
-        <f>IF(AND(C13&lt;&gt;"",D13&lt;&gt;"",G13&lt;&gt;""),C13*(G13-D13),"")</f>
-        <v/>
-      </c>
-      <c r="J13">
-        <f>IF(AND(D13&lt;&gt;"",D13&lt;&gt;0,G13&lt;&gt;""),((G13-D13)/D13)*100,"")</f>
-        <v/>
+      <c r="H13" t="n">
+        <v>138.0714</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-11.847</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-7.90229885057471</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>SELL - Stop Loss Triggered</t>
         </is>
       </c>
-      <c r="M13" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K13)),I13,H13+L13)</f>
-        <v/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>-11.847</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1133,7 +1038,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
@@ -1149,9 +1054,8 @@
       <c r="D14" t="n">
         <v>13.25</v>
       </c>
-      <c r="E14">
-        <f>IF(AND(C14&lt;&gt;"",D14&lt;&gt;""),C14*D14,"")</f>
-        <v/>
+      <c r="E14" t="n">
+        <v>149.99</v>
       </c>
       <c r="F14" t="n">
         <v>12.19</v>
@@ -1159,30 +1063,28 @@
       <c r="G14" t="n">
         <v>12.84</v>
       </c>
-      <c r="H14">
-        <f>IF(AND(C14&lt;&gt;"",G14&lt;&gt;""),C14*G14,"")</f>
-        <v/>
-      </c>
-      <c r="I14">
-        <f>IF(AND(C14&lt;&gt;"",D14&lt;&gt;"",G14&lt;&gt;""),C14*(G14-D14),"")</f>
-        <v/>
-      </c>
-      <c r="J14">
-        <f>IF(AND(D14&lt;&gt;"",D14&lt;&gt;0,G14&lt;&gt;""),((G14-D14)/D14)*100,"")</f>
-        <v/>
+      <c r="H14" t="n">
+        <v>145.3488</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-4.641200000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-3.094339622641511</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M14" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K14)),I14,H14+L14)</f>
-        <v/>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>145.3488</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
@@ -1198,9 +1100,8 @@
       <c r="D15" t="n">
         <v>34.18</v>
       </c>
-      <c r="E15">
-        <f>IF(AND(C15&lt;&gt;"",D15&lt;&gt;""),C15*D15,"")</f>
-        <v/>
+      <c r="E15" t="n">
+        <v>149.7084</v>
       </c>
       <c r="F15" t="n">
         <v>31.45</v>
@@ -1208,30 +1109,28 @@
       <c r="G15" t="n">
         <v>34.89</v>
       </c>
-      <c r="H15">
-        <f>IF(AND(C15&lt;&gt;"",G15&lt;&gt;""),C15*G15,"")</f>
-        <v/>
-      </c>
-      <c r="I15">
-        <f>IF(AND(C15&lt;&gt;"",D15&lt;&gt;"",G15&lt;&gt;""),C15*(G15-D15),"")</f>
-        <v/>
-      </c>
-      <c r="J15">
-        <f>IF(AND(D15&lt;&gt;"",D15&lt;&gt;0,G15&lt;&gt;""),((G15-D15)/D15)*100,"")</f>
-        <v/>
+      <c r="H15" t="n">
+        <v>152.8182</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.109800000000003</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.077238150965479</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M15" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K15)),I15,H15+L15)</f>
-        <v/>
-      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>152.8182</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
@@ -1247,9 +1146,8 @@
       <c r="D16" t="n">
         <v>58.14</v>
       </c>
-      <c r="E16">
-        <f>IF(AND(C16&lt;&gt;"",D16&lt;&gt;""),C16*D16,"")</f>
-        <v/>
+      <c r="E16" t="n">
+        <v>150.0012</v>
       </c>
       <c r="F16" t="n">
         <v>53.49</v>
@@ -1257,69 +1155,62 @@
       <c r="G16" t="n">
         <v>58.87</v>
       </c>
-      <c r="H16">
-        <f>IF(AND(C16&lt;&gt;"",G16&lt;&gt;""),C16*G16,"")</f>
-        <v/>
-      </c>
-      <c r="I16">
-        <f>IF(AND(C16&lt;&gt;"",D16&lt;&gt;"",G16&lt;&gt;""),C16*(G16-D16),"")</f>
-        <v/>
-      </c>
-      <c r="J16">
-        <f>IF(AND(D16&lt;&gt;"",D16&lt;&gt;0,G16&lt;&gt;""),((G16-D16)/D16)*100,"")</f>
-        <v/>
+      <c r="H16" t="n">
+        <v>151.8846</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.883399999999992</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.255589955280352</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>HOLD</t>
         </is>
       </c>
-      <c r="M16" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K16)),I16,H16+L16)</f>
-        <v/>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>151.8846</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2025-09-24</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1">
-        <f>SUM(E12:E16)</f>
-        <v/>
-      </c>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="n"/>
-      <c r="H17" s="1">
-        <f>SUM(H12:H16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="1">
-        <f>SUM(I12:I16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1">
-        <f>SUM(L12:L16)</f>
-        <v/>
-      </c>
-      <c r="M17" s="6">
-        <f>SUM(M12:M16)</f>
-        <v/>
-      </c>
-      <c r="N17" s="1" t="n"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>749.6702</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>743.0579999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-6.612200000000006</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>593.1396</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
@@ -1344,17 +1235,14 @@
       <c r="G18" t="n">
         <v>7.97</v>
       </c>
-      <c r="H18">
-        <f>IF(AND(C18&lt;&gt;"",G18&lt;&gt;""),C18*G18,"")</f>
-        <v/>
-      </c>
-      <c r="I18">
-        <f>IF(AND(C18&lt;&gt;"",D18&lt;&gt;"",G18&lt;&gt;""),C18*(G18-D18),"")</f>
-        <v/>
-      </c>
-      <c r="J18">
-        <f>IF(AND(D18&lt;&gt;"",D18&lt;&gt;0,G18&lt;&gt;""),((G18-D18)/D18)*100,"")</f>
-        <v/>
+      <c r="H18" t="n">
+        <v>149.6766</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.3756000000000087</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.2503128911138982</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1364,13 +1252,13 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K18)),I18,H18+L18)</f>
-        <v/>
-      </c>
+      <c r="M18" t="n">
+        <v>149.6766</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
@@ -1395,17 +1283,14 @@
       <c r="G19" t="n">
         <v>12.23</v>
       </c>
-      <c r="H19">
-        <f>IF(AND(C19&lt;&gt;"",G19&lt;&gt;""),C19*G19,"")</f>
-        <v/>
-      </c>
-      <c r="I19">
-        <f>IF(AND(C19&lt;&gt;"",D19&lt;&gt;"",G19&lt;&gt;""),C19*(G19-D19),"")</f>
-        <v/>
-      </c>
-      <c r="J19">
-        <f>IF(AND(D19&lt;&gt;"",D19&lt;&gt;0,G19&lt;&gt;""),((G19-D19)/D19)*100,"")</f>
-        <v/>
+      <c r="H19" t="n">
+        <v>138.4436</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-19.13079999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-12.14080459770115</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1415,13 +1300,13 @@
       <c r="L19" t="n">
         <v>131.72</v>
       </c>
-      <c r="M19" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K19)),I19,H19+L19)</f>
-        <v/>
-      </c>
+      <c r="M19" t="n">
+        <v>-19.13079999999999</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
@@ -1446,17 +1331,14 @@
       <c r="G20" t="n">
         <v>34.72</v>
       </c>
-      <c r="H20">
-        <f>IF(AND(C20&lt;&gt;"",G20&lt;&gt;""),C20*G20,"")</f>
-        <v/>
-      </c>
-      <c r="I20">
-        <f>IF(AND(C20&lt;&gt;"",D20&lt;&gt;"",G20&lt;&gt;""),C20*(G20-D20),"")</f>
-        <v/>
-      </c>
-      <c r="J20">
-        <f>IF(AND(D20&lt;&gt;"",D20&lt;&gt;0,G20&lt;&gt;""),((G20-D20)/D20)*100,"")</f>
-        <v/>
+      <c r="H20" t="n">
+        <v>152.0736</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.365199999999996</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.579871269748388</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1466,13 +1348,13 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K20)),I20,H20+L20)</f>
-        <v/>
-      </c>
+      <c r="M20" t="n">
+        <v>152.0736</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
@@ -1497,17 +1379,14 @@
       <c r="G21" t="n">
         <v>57.69</v>
       </c>
-      <c r="H21">
-        <f>IF(AND(C21&lt;&gt;"",G21&lt;&gt;""),C21*G21,"")</f>
-        <v/>
-      </c>
-      <c r="I21">
-        <f>IF(AND(C21&lt;&gt;"",D21&lt;&gt;"",G21&lt;&gt;""),C21*(G21-D21),"")</f>
-        <v/>
-      </c>
-      <c r="J21">
-        <f>IF(AND(D21&lt;&gt;"",D21&lt;&gt;0,G21&lt;&gt;""),((G21-D21)/D21)*100,"")</f>
-        <v/>
+      <c r="H21" t="n">
+        <v>148.8402</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1.161000000000007</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.7739938080495404</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1517,52 +1396,47 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K21)),I21,H21+L21)</f>
-        <v/>
-      </c>
+      <c r="M21" t="n">
+        <v>148.8402</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1">
-        <f>SUM(E18:E21)</f>
-        <v/>
-      </c>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1" t="n"/>
-      <c r="H22" s="1">
-        <f>SUM(H18:H21)</f>
-        <v/>
-      </c>
-      <c r="I22" s="1">
-        <f>SUM(I18:I21)</f>
-        <v/>
-      </c>
-      <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1">
-        <f>SUM(L18:L21)</f>
-        <v/>
-      </c>
-      <c r="M22" s="6">
-        <f>SUM(M18:M21)</f>
-        <v/>
-      </c>
-      <c r="N22" s="1" t="n"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>599.6802</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>589.034</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-18.30220000000001</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>131.72</v>
+      </c>
+      <c r="M22" t="n">
+        <v>431.4596</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
@@ -1587,17 +1461,14 @@
       <c r="G23" t="n">
         <v>7.97</v>
       </c>
-      <c r="H23">
-        <f>IF(AND(C23&lt;&gt;"",G23&lt;&gt;""),C23*G23,"")</f>
-        <v/>
-      </c>
-      <c r="I23">
-        <f>IF(AND(C23&lt;&gt;"",D23&lt;&gt;"",G23&lt;&gt;""),C23*(G23-D23),"")</f>
-        <v/>
-      </c>
-      <c r="J23">
-        <f>IF(AND(D23&lt;&gt;"",D23&lt;&gt;0,G23&lt;&gt;""),((G23-D23)/D23)*100,"")</f>
-        <v/>
+      <c r="H23" t="n">
+        <v>149.6766</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.3756000000000087</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.2503128911138982</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1607,13 +1478,13 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K23)),I23,H23+L23)</f>
-        <v/>
-      </c>
+      <c r="M23" t="n">
+        <v>149.6766</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
@@ -1638,17 +1509,14 @@
       <c r="G24" t="n">
         <v>34.72</v>
       </c>
-      <c r="H24">
-        <f>IF(AND(C24&lt;&gt;"",G24&lt;&gt;""),C24*G24,"")</f>
-        <v/>
-      </c>
-      <c r="I24">
-        <f>IF(AND(C24&lt;&gt;"",D24&lt;&gt;"",G24&lt;&gt;""),C24*(G24-D24),"")</f>
-        <v/>
-      </c>
-      <c r="J24">
-        <f>IF(AND(D24&lt;&gt;"",D24&lt;&gt;0,G24&lt;&gt;""),((G24-D24)/D24)*100,"")</f>
-        <v/>
+      <c r="H24" t="n">
+        <v>152.0736</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.365199999999996</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.579871269748388</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1658,13 +1526,13 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K24)),I24,H24+L24)</f>
-        <v/>
-      </c>
+      <c r="M24" t="n">
+        <v>152.0736</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
@@ -1689,17 +1557,14 @@
       <c r="G25" t="n">
         <v>59.59</v>
       </c>
-      <c r="H25">
-        <f>IF(AND(C25&lt;&gt;"",G25&lt;&gt;""),C25*G25,"")</f>
-        <v/>
-      </c>
-      <c r="I25">
-        <f>IF(AND(C25&lt;&gt;"",D25&lt;&gt;"",G25&lt;&gt;""),C25*(G25-D25),"")</f>
-        <v/>
-      </c>
-      <c r="J25">
-        <f>IF(AND(D25&lt;&gt;"",D25&lt;&gt;0,G25&lt;&gt;""),((G25-D25)/D25)*100,"")</f>
-        <v/>
+      <c r="H25" t="n">
+        <v>153.7422</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.741000000000008</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.493980048159619</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1709,52 +1574,47 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K25)),I25,H25+L25)</f>
-        <v/>
-      </c>
+      <c r="M25" t="n">
+        <v>153.7422</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1">
-        <f>SUM(E23:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="1" t="n"/>
-      <c r="G26" s="1" t="n"/>
-      <c r="H26" s="1">
-        <f>SUM(H23:H25)</f>
-        <v/>
-      </c>
-      <c r="I26" s="1">
-        <f>SUM(I23:I25)</f>
-        <v/>
-      </c>
-      <c r="J26" s="1" t="n"/>
-      <c r="K26" s="1" t="n"/>
-      <c r="L26" s="1">
-        <f>SUM(L23:L25)</f>
-        <v/>
-      </c>
-      <c r="M26" s="6">
-        <f>SUM(M23:M25)</f>
-        <v/>
-      </c>
-      <c r="N26" s="1" t="n"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>449.7618</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>455.4924</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.730599999999995</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>455.4924</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
@@ -1770,9 +1630,8 @@
       <c r="D27" t="n">
         <v>7.99</v>
       </c>
-      <c r="E27">
-        <f>IF(ISNUMBER(SEARCH("SELL",K27)),0,IF(AND(C27&lt;&gt;"",D27&lt;&gt;""),C27*D27,""))</f>
-        <v/>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>7.35</v>
@@ -1780,30 +1639,25 @@
       <c r="G27" t="n">
         <v>7.76</v>
       </c>
-      <c r="H27">
-        <f>IF(AND(C27&lt;&gt;"",G27&lt;&gt;""),C27*G27,"")</f>
-        <v/>
-      </c>
-      <c r="I27">
-        <f>IF(AND(C27&lt;&gt;"",D27&lt;&gt;"",G27&lt;&gt;""),C27*(G27-D27),"")</f>
-        <v/>
-      </c>
-      <c r="J27">
-        <f>IF(AND(D27&lt;&gt;"",D27&lt;&gt;0,G27&lt;&gt;""),((G27-D27)/D27)*100,"")</f>
-        <v/>
+      <c r="H27" t="n">
+        <v>145.7328</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-4.319400000000008</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-2.878598247809768</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>SELL - Manual</t>
         </is>
       </c>
-      <c r="L27">
-        <f>IF(AND(C27&lt;&gt;"",G27&lt;&gt;""),C27*G27,"")</f>
-        <v/>
-      </c>
-      <c r="M27" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K27)),I27,H27)</f>
-        <v/>
+      <c r="L27" t="n">
+        <v>145.7328</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-4.319400000000008</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1812,7 +1666,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
@@ -1828,9 +1682,8 @@
       <c r="D28" t="n">
         <v>34.18</v>
       </c>
-      <c r="E28">
-        <f>IF(ISNUMBER(SEARCH("SELL",K28)),0,IF(AND(C28&lt;&gt;"",D28&lt;&gt;""),C28*D28,""))</f>
-        <v/>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>31.45</v>
@@ -1838,30 +1691,25 @@
       <c r="G28" t="n">
         <v>35.15</v>
       </c>
-      <c r="H28">
-        <f>IF(AND(C28&lt;&gt;"",G28&lt;&gt;""),C28*G28,"")</f>
-        <v/>
-      </c>
-      <c r="I28">
-        <f>IF(AND(C28&lt;&gt;"",D28&lt;&gt;"",G28&lt;&gt;""),C28*(G28-D28),"")</f>
-        <v/>
-      </c>
-      <c r="J28">
-        <f>IF(AND(D28&lt;&gt;"",D28&lt;&gt;0,G28&lt;&gt;""),((G28-D28)/D28)*100,"")</f>
-        <v/>
+      <c r="H28" t="n">
+        <v>153.957</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.248599999999995</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.837916910473958</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>SELL - Manual</t>
         </is>
       </c>
-      <c r="L28">
-        <f>IF(AND(C28&lt;&gt;"",G28&lt;&gt;""),C28*G28,"")</f>
-        <v/>
-      </c>
-      <c r="M28" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K28)),I28,H28)</f>
-        <v/>
+      <c r="L28" t="n">
+        <v>153.957</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.248599999999995</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1870,7 +1718,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
@@ -1886,27 +1734,23 @@
       <c r="D29" t="n">
         <v>58.14</v>
       </c>
-      <c r="E29">
-        <f>IF(ISNUMBER(SEARCH("SELL",K29)),0,IF(AND(C29&lt;&gt;"",D29&lt;&gt;""),C29*D29,""))</f>
-        <v/>
+      <c r="E29" t="n">
+        <v>150.0012</v>
       </c>
       <c r="F29" t="n">
         <v>53.49</v>
       </c>
       <c r="G29" t="n">
-        <v>60.26</v>
-      </c>
-      <c r="H29">
-        <f>IF(AND(C29&lt;&gt;"",G29&lt;&gt;""),C29*G29,"")</f>
-        <v/>
-      </c>
-      <c r="I29">
-        <f>IF(AND(C29&lt;&gt;"",D29&lt;&gt;"",G29&lt;&gt;""),C29*(G29-D29),"")</f>
-        <v/>
-      </c>
-      <c r="J29">
-        <f>IF(AND(D29&lt;&gt;"",D29&lt;&gt;0,G29&lt;&gt;""),((G29-D29)/D29)*100,"")</f>
-        <v/>
+        <v>62.25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>160.605</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10.6038</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.069143446852425</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1916,67 +1760,61 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K29)),I29,H29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" customFormat="1" s="7">
-      <c r="A30" s="8" t="inlineStr">
+      <c r="M29" t="n">
+        <v>160.605</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>CRMD</t>
         </is>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" t="n">
         <v>7.672</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" t="n">
         <v>11.73</v>
       </c>
-      <c r="E30" s="7">
-        <f>IF(ISNUMBER(SEARCH("SELL",K30)),0,IF(AND(C30&lt;&gt;"",D30&lt;&gt;""),C30*D30,""))</f>
-        <v/>
-      </c>
-      <c r="F30" s="7">
-        <f>D30*0.92</f>
-        <v/>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="H30" s="7">
-        <f>IF(AND(C30&lt;&gt;"",G30&lt;&gt;""),C30*G30,"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="7">
-        <f>IF(AND(C30&lt;&gt;"",D30&lt;&gt;"",G30&lt;&gt;""),C30*(G30-D30),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="7">
-        <f>IF(AND(D30&lt;&gt;"",D30&lt;&gt;0,G30&lt;&gt;""),((G30-D30)/D30)*100,"")</f>
-        <v/>
-      </c>
-      <c r="K30" s="7" t="inlineStr">
+      <c r="E30" t="n">
+        <v>89.99256</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10.7916</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="H30" t="n">
+        <v>90.91319999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.920639999999994</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.023017902813293</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="L30" s="7">
-        <f>IF(AND(C30&lt;&gt;"",G30&lt;&gt;""),-C30*G30,"")</f>
-        <v/>
-      </c>
-      <c r="M30" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K30)),I30,H30)</f>
-        <v/>
-      </c>
+      <c r="L30" t="n">
+        <v>-90.91319999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>90.91319999999999</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
@@ -1992,40 +1830,34 @@
       <c r="D31" t="n">
         <v>8.41</v>
       </c>
-      <c r="E31">
-        <f>IF(ISNUMBER(SEARCH("SELL",K31)),0,IF(AND(C31&lt;&gt;"",D31&lt;&gt;""),C31*D31,""))</f>
-        <v/>
+      <c r="E31" t="n">
+        <v>219.996349</v>
       </c>
       <c r="F31" t="n">
         <v>7.74</v>
       </c>
       <c r="G31" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="H31">
-        <f>IF(AND(C31&lt;&gt;"",G31&lt;&gt;""),C31*G31,"")</f>
-        <v/>
-      </c>
-      <c r="I31">
-        <f>IF(AND(C31&lt;&gt;"",D31&lt;&gt;"",G31&lt;&gt;""),C31*(G31-D31),"")</f>
-        <v/>
-      </c>
-      <c r="J31">
-        <f>IF(AND(D31&lt;&gt;"",D31&lt;&gt;0,G31&lt;&gt;""),((G31-D31)/D31)*100,"")</f>
-        <v/>
+        <v>8.529999999999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>223.135417</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.13906799999998</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.426872770511287</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="L31">
-        <f>IF(AND(C31&lt;&gt;"",G31&lt;&gt;""),-C31*G31,"")</f>
-        <v/>
-      </c>
-      <c r="M31" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K31)),I31,H31)</f>
-        <v/>
+      <c r="L31" t="n">
+        <v>-223.135417</v>
+      </c>
+      <c r="M31" t="n">
+        <v>223.135417</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2034,7 +1866,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
@@ -2050,40 +1882,34 @@
       <c r="D32" t="n">
         <v>33.16</v>
       </c>
-      <c r="E32">
-        <f>IF(ISNUMBER(SEARCH("SELL",K32)),0,IF(AND(C32&lt;&gt;"",D32&lt;&gt;""),C32*D32,""))</f>
-        <v/>
+      <c r="E32" t="n">
+        <v>109.995036</v>
       </c>
       <c r="F32" t="n">
         <v>30.51</v>
       </c>
       <c r="G32" t="n">
-        <v>33.72</v>
-      </c>
-      <c r="H32">
-        <f>IF(AND(C32&lt;&gt;"",G32&lt;&gt;""),C32*G32,"")</f>
-        <v/>
-      </c>
-      <c r="I32">
-        <f>IF(AND(C32&lt;&gt;"",D32&lt;&gt;"",G32&lt;&gt;""),C32*(G32-D32),"")</f>
-        <v/>
-      </c>
-      <c r="J32">
-        <f>IF(AND(D32&lt;&gt;"",D32&lt;&gt;0,G32&lt;&gt;""),((G32-D32)/D32)*100,"")</f>
-        <v/>
+        <v>33.61</v>
+      </c>
+      <c r="H32" t="n">
+        <v>111.487731</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.492695000000009</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.357056694813036</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="L32">
-        <f>IF(AND(C32&lt;&gt;"",G32&lt;&gt;""),-C32*G32,"")</f>
-        <v/>
-      </c>
-      <c r="M32" s="5">
-        <f>IF(ISNUMBER(SEARCH("SELL",K32)),I32,H32)</f>
-        <v/>
+      <c r="L32" t="n">
+        <v>-111.487731</v>
+      </c>
+      <c r="M32" t="n">
+        <v>111.487731</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2092,46 +1918,240 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>2025-09-29</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1">
-        <f>SUM(E27:E32)</f>
-        <v/>
-      </c>
-      <c r="F33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
-      <c r="H33" s="1">
-        <f>SUM(H27:H32)</f>
-        <v/>
-      </c>
-      <c r="I33" s="1">
-        <f>SUM(I27:I32)</f>
-        <v/>
-      </c>
-      <c r="J33" s="1" t="n"/>
-      <c r="K33" s="1" t="n"/>
-      <c r="L33" s="1">
-        <f>SUM(L27:L32)</f>
-        <v/>
-      </c>
-      <c r="M33" s="6">
-        <f>SUM(M27:M32)</f>
-        <v/>
-      </c>
-      <c r="N33" s="1" t="n"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>569.985145</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>885.831148</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.08540299999997</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>5.873452000000015</v>
+      </c>
+      <c r="M33" t="n">
+        <v>586.0705479999999</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PVLA</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D34" t="n">
+        <v>58.14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>150.0012</v>
+      </c>
+      <c r="F34" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G34" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>160.61</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CRMD</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7.672</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.99256</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.7916</v>
+      </c>
+      <c r="G35" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="H35" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ARVN</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>26.1589</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="E36" t="n">
+        <v>219.996349</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>223.14</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VCYT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.3171</v>
+      </c>
+      <c r="D37" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="E37" t="n">
+        <v>109.995036</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="G37" t="n">
+        <v>33.61</v>
+      </c>
+      <c r="H37" t="n">
+        <v>111.49</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>586.15</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="M38" t="n">
+        <v>592.02</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>